--- a/Cases-identified-by-local-authorities.freezed-from-11.03.2020.xlsx
+++ b/Cases-identified-by-local-authorities.freezed-from-11.03.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xshaun/GitHub/COVID-19-UK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFEBBDE-ADE6-3C41-8E2F-104D58822902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAE6AAB-057C-7C40-A4AF-5BB36FBF68A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1500" windowWidth="27720" windowHeight="17540" activeTab="1" xr2:uid="{03FAC37E-E114-B94A-90DB-A205D9B9D727}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27720" windowHeight="17540" xr2:uid="{03FAC37E-E114-B94A-90DB-A205D9B9D727}"/>
   </bookViews>
   <sheets>
     <sheet name="details-in-England" sheetId="1" r:id="rId1"/>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24FA156-A3A6-9444-8142-DD1738F7E1B2}">
   <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="C152" sqref="A1:G152"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B151" sqref="B2:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6305,7 +6305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5951A9E8-0B58-FE43-BAD2-B2951E7BDE31}">
   <dimension ref="A1:EV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="EV2" sqref="EV2"/>
     </sheetView>
   </sheetViews>
